--- a/docentes/García Sánchez Magda Bexabe - Estadisticos 20202.xlsx
+++ b/docentes/García Sánchez Magda Bexabe - Estadisticos 20202.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="50">
   <si>
     <t>Mat</t>
   </si>
@@ -88,103 +88,67 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>ADELL</t>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>CORTEZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
   </si>
   <si>
     <t>CORONA</t>
   </si>
   <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
     <t>PEREZ</t>
   </si>
   <si>
     <t>XOCUA</t>
   </si>
   <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TLECUILE</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>SEGURA</t>
+  </si>
+  <si>
+    <t>EVARISTO</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>ANASTACIO</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>NUBE</t>
-  </si>
-  <si>
-    <t>TELLEZ</t>
-  </si>
-  <si>
-    <t>OSORIO</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>DE LUNA</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>CALIHUA</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>PONCE</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>SEGURA</t>
-  </si>
-  <si>
-    <t>EVARISTO</t>
-  </si>
-  <si>
-    <t>ALEMAN</t>
-  </si>
-  <si>
-    <t>VALENCIA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>CORDOVA</t>
-  </si>
-  <si>
-    <t>CRISTOPHER ALAIN</t>
+    <t>HECTOR</t>
+  </si>
+  <si>
+    <t>CRISTIAN JAVIER</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>ALDAIR ALAN</t>
   </si>
   <si>
     <t>JOSUE</t>
@@ -199,49 +163,10 @@
     <t>MARCOS URIEL</t>
   </si>
   <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>ANGEL EMMANUEL</t>
-  </si>
-  <si>
-    <t>ALEJANDRA</t>
-  </si>
-  <si>
-    <t>MARITZA</t>
-  </si>
-  <si>
-    <t>HIRAM FABIAN</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO</t>
-  </si>
-  <si>
-    <t>ALDAIR ALAN</t>
-  </si>
-  <si>
-    <t>CHRISTIAN YAIR</t>
-  </si>
-  <si>
-    <t>BENY ALEXANDER</t>
-  </si>
-  <si>
-    <t>LUZ CLARA</t>
-  </si>
-  <si>
     <t>ANGELA MONTSERRAT</t>
   </si>
   <si>
     <t>ROSA ISELA</t>
-  </si>
-  <si>
-    <t>GUILLERMO</t>
-  </si>
-  <si>
-    <t>IKER</t>
   </si>
 </sst>
 </file>
@@ -645,10 +570,10 @@
         <v>39</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>12</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
       </c>
       <c r="F2">
         <v>27</v>
@@ -657,7 +582,7 @@
         <v>69.23</v>
       </c>
       <c r="H2">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -671,19 +596,19 @@
         <v>41</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3">
-        <v>92.68000000000001</v>
+        <v>97.56</v>
       </c>
       <c r="H3">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -697,10 +622,10 @@
         <v>25</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>3</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
       </c>
       <c r="F4">
         <v>22</v>
@@ -709,7 +634,7 @@
         <v>88</v>
       </c>
       <c r="H4">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -723,19 +648,19 @@
         <v>39</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5">
-        <v>87.18000000000001</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="H5">
-        <v>7.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -749,19 +674,19 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6">
-        <v>74.29000000000001</v>
+        <v>77.14</v>
       </c>
       <c r="H6">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -775,10 +700,10 @@
         <v>36</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>7</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>29</v>
@@ -787,7 +712,7 @@
         <v>80.56</v>
       </c>
       <c r="H7">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -801,19 +726,19 @@
         <v>32</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8">
-        <v>75</v>
+        <v>78.13</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>7.3</v>
       </c>
     </row>
   </sheetData>
@@ -869,19 +794,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2">
-        <v>64.09999999999999</v>
+        <v>69.23</v>
       </c>
       <c r="H2">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -895,19 +820,19 @@
         <v>41</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G3">
-        <v>82.93000000000001</v>
+        <v>95.12</v>
       </c>
       <c r="H3">
-        <v>8.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -921,19 +846,19 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H4">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -947,19 +872,19 @@
         <v>39</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G5">
-        <v>76.92</v>
+        <v>84.62</v>
       </c>
       <c r="H5">
-        <v>7.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -973,19 +898,19 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G6">
-        <v>60</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="H6">
-        <v>7.8</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -999,19 +924,19 @@
         <v>36</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>69.44</v>
+        <v>77.78</v>
       </c>
       <c r="H7">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1025,19 +950,19 @@
         <v>32</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G8">
-        <v>68.75</v>
+        <v>78.13</v>
       </c>
       <c r="H8">
-        <v>8.199999999999999</v>
+        <v>7.3</v>
       </c>
     </row>
   </sheetData>
@@ -1093,10 +1018,10 @@
         <v>39</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>12</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
       </c>
       <c r="F2">
         <v>27</v>
@@ -1105,7 +1030,7 @@
         <v>69.23</v>
       </c>
       <c r="H2">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1119,19 +1044,19 @@
         <v>41</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3">
-        <v>92.68000000000001</v>
+        <v>95.12</v>
       </c>
       <c r="H3">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1145,10 +1070,10 @@
         <v>25</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>3</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
       </c>
       <c r="F4">
         <v>22</v>
@@ -1157,7 +1082,7 @@
         <v>88</v>
       </c>
       <c r="H4">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1171,19 +1096,19 @@
         <v>39</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5">
-        <v>87.18000000000001</v>
+        <v>84.62</v>
       </c>
       <c r="H5">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1197,10 +1122,10 @@
         <v>35</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>9</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
       </c>
       <c r="F6">
         <v>26</v>
@@ -1209,7 +1134,7 @@
         <v>74.29000000000001</v>
       </c>
       <c r="H6">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1223,19 +1148,19 @@
         <v>36</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>80.56</v>
+        <v>77.78</v>
       </c>
       <c r="H7">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1249,19 +1174,19 @@
         <v>32</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8">
-        <v>75</v>
+        <v>78.13</v>
       </c>
       <c r="H8">
-        <v>8.1</v>
+        <v>7.3</v>
       </c>
     </row>
   </sheetData>
@@ -1271,7 +1196,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1306,16 +1231,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920002</v>
+        <v>20330051920001</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1329,16 +1254,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920362</v>
+        <v>20330051920005</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1352,22 +1277,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920016</v>
+        <v>20330051920052</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1375,22 +1300,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920026</v>
+        <v>20330051920097</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1398,16 +1323,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920035</v>
+        <v>20330051920362</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1416,90 +1341,90 @@
         <v>10</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920240</v>
+        <v>20330051920016</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920251</v>
+        <v>20330051920026</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920214</v>
+        <v>20330051920035</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920356</v>
+        <v>20330051920383</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1508,21 +1433,21 @@
         <v>12</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920042</v>
+        <v>20330051920107</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1531,236 +1456,6 @@
         <v>14</v>
       </c>
       <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920052</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920055</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>20330051920097</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>20330051920100</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>20330051920109</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>20330051920305</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>20330051920383</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>20330051920107</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>20330051920112</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>20330051920300</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21">
         <v>1</v>
       </c>
     </row>
